--- a/Кейсы_Валерия_Коновалова.xlsx
+++ b/Кейсы_Валерия_Коновалова.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Documents\GitHub\Hello_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="117">
   <si>
     <t>passed</t>
   </si>
@@ -989,23 +989,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1017,6 +1000,23 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2263,8 +2263,8 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2309,7 +2309,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="7">
         <f>COUNTIF(L$8:L$42,"failed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" s="6"/>
       <c r="N1" s="7">
@@ -2354,7 +2354,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="9">
         <f>COUNTIF(L$8:L$42,"passed")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="9">
@@ -2475,45 +2475,45 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="49" t="s">
+      <c r="F6" s="54"/>
+      <c r="G6" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="50" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="13"/>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="56" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="6"/>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="56" t="s">
         <v>18</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="48"/>
+      <c r="P6" s="56"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="48"/>
+      <c r="R6" s="56"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="48"/>
+      <c r="T6" s="56"/>
       <c r="U6" s="6"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
@@ -2523,29 +2523,29 @@
     </row>
     <row r="7" spans="1:26" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="47"/>
+      <c r="L7" s="51"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="47"/>
+      <c r="N7" s="51"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="47"/>
+      <c r="P7" s="51"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="47"/>
+      <c r="R7" s="51"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="47"/>
+      <c r="T7" s="51"/>
       <c r="U7" s="6"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
@@ -2575,7 +2575,9 @@
       <c r="I8" s="19"/>
       <c r="J8" s="18"/>
       <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
+      <c r="L8" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="21"/>
       <c r="O8" s="6"/>
@@ -2611,7 +2613,9 @@
       <c r="I9" s="19"/>
       <c r="J9" s="18"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
+      <c r="L9" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="21"/>
       <c r="O9" s="6"/>
@@ -2647,7 +2651,9 @@
       <c r="I10" s="19"/>
       <c r="J10" s="18"/>
       <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
+      <c r="L10" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="21"/>
       <c r="O10" s="6"/>
@@ -2683,7 +2689,9 @@
       <c r="I11" s="27"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="28"/>
+      <c r="L11" s="28" t="s">
+        <v>1</v>
+      </c>
       <c r="M11" s="29"/>
       <c r="N11" s="30"/>
       <c r="O11" s="31"/>
@@ -2719,7 +2727,9 @@
       <c r="I12" s="19"/>
       <c r="J12" s="18"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
+      <c r="L12" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="6"/>
       <c r="N12" s="21"/>
       <c r="O12" s="6"/>
@@ -3371,16 +3381,16 @@
       <c r="B31" s="16">
         <v>1</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="46" t="s">
         <v>94</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="54" t="s">
+      <c r="F31" s="47" t="s">
         <v>99</v>
       </c>
       <c r="G31" s="11"/>
@@ -3413,10 +3423,10 @@
       <c r="D32" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="E32" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="47" t="s">
         <v>101</v>
       </c>
       <c r="G32" s="11"/>
@@ -3449,10 +3459,10 @@
       <c r="D33" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="47" t="s">
         <v>104</v>
       </c>
       <c r="G33" s="11"/>
@@ -3485,10 +3495,10 @@
       <c r="D34" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="54" t="s">
+      <c r="F34" s="47" t="s">
         <v>105</v>
       </c>
       <c r="G34" s="11"/>
@@ -3521,10 +3531,10 @@
       <c r="D35" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="F35" s="54" t="s">
+      <c r="F35" s="47" t="s">
         <v>108</v>
       </c>
       <c r="G35" s="11"/>
@@ -3557,10 +3567,10 @@
       <c r="D36" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="E36" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F36" s="54" t="s">
+      <c r="F36" s="47" t="s">
         <v>109</v>
       </c>
       <c r="G36" s="11"/>
@@ -3593,10 +3603,10 @@
       <c r="D37" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="54" t="s">
+      <c r="F37" s="47" t="s">
         <v>111</v>
       </c>
       <c r="G37" s="11"/>
@@ -3629,10 +3639,10 @@
       <c r="D38" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="54" t="s">
+      <c r="F38" s="47" t="s">
         <v>113</v>
       </c>
       <c r="G38" s="11"/>
@@ -3665,10 +3675,10 @@
       <c r="D39" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="54" t="s">
+      <c r="E39" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="F39" s="56" t="s">
+      <c r="F39" s="49" t="s">
         <v>115</v>
       </c>
       <c r="G39" s="11"/>
@@ -3694,7 +3704,7 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="47" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="11"/>
@@ -3727,16 +3737,16 @@
       <c r="B41" s="11">
         <v>1</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="D41" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="54" t="s">
+      <c r="E41" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="54" t="s">
+      <c r="F41" s="47" t="s">
         <v>98</v>
       </c>
       <c r="G41" s="11"/>
@@ -5188,12 +5198,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="P6:P7"/>
@@ -5201,6 +5205,12 @@
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="L8:L10 V11 X11 Z11 L12:L42 N8:N42 P8:P42 R8:R42 T8:T42">
